--- a/data/processed/state_overviews/rhode-island_overview.xlsx
+++ b/data/processed/state_overviews/rhode-island_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>547</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Bristol County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>23</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Kent County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>54</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Newport County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>59</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Providence County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>343</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>68</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -605,6 +617,38 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>60.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$1,009,094,930</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.60%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-11.45%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -659,8 +703,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>281</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -689,8 +735,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>266</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -719,8 +767,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B4">
-        <v>547</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -794,8 +844,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>177</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -824,8 +876,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>155</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -854,8 +908,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>79</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -884,8 +940,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>45</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -914,8 +972,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>64</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -944,8 +1004,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>27</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -974,8 +1036,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>547</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1049,8 +1113,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>63</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1079,8 +1145,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>82</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1109,8 +1177,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>26</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1139,8 +1209,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>42</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1169,8 +1241,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1199,8 +1273,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>153</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1229,8 +1305,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>5</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1289,8 +1369,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>34</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1319,8 +1401,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1349,8 +1433,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>129</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1379,8 +1465,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1409,8 +1497,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>547</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/rhode-island_overview.xlsx
+++ b/data/processed/state_overviews/rhode-island_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,224 +431,256 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bristol County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$21,640,086</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.00%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>43.48%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kent County</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>547</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$85,404,142</t>
+          <t>$1,009,094,930</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.56%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-28.77%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>81.48%</t>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Bristol County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$63,188,348</t>
+          <t>$21,640,086</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.77%</t>
+          <t>11.00%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>0.89%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>47.46%</t>
+          <t>43.48%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Providence County</t>
+          <t>Kent County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$807,901,665</t>
+          <t>$85,404,142</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.52%</t>
+          <t>5.56%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.70%</t>
+          <t>-28.77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.39%</t>
+          <t>81.48%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$30,960,689</t>
+          <t>$63,188,348</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.38%</t>
+          <t>15.77%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-5.99%</t>
+          <t>1.34%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60.29%</t>
+          <t>47.46%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Providence County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>343</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,009,094,930</t>
+          <t>$807,901,665</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9.60%</t>
+          <t>8.52%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-11.45%</t>
+          <t>-13.70%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>66.00%</t>
+          <t>69.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Washington County</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$30,960,689</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.38%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-5.99%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>60.29%</t>
         </is>
       </c>
     </row>
@@ -659,7 +691,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -668,128 +700,160 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$590,475,638</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.36%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>62.28%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>547</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$418,619,292</t>
+          <t>$1,009,094,930</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-13.27%</t>
+          <t>-11.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.92%</t>
+          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>281</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,009,094,930</t>
+          <t>$590,475,638</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.60%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.45%</t>
+          <t>-9.36%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.00%</t>
+          <t>62.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2nd Congressional district</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$418,619,292</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.96%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-13.27%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>69.92%</t>
         </is>
       </c>
     </row>
@@ -814,34 +878,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -873,128 +937,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$150,835,594</t>
+          <t>$726,810,103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-17.52%</t>
+          <t>-6.99%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.39%</t>
+          <t>70.31%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$17,881,469</t>
+          <t>$150,835,594</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.94%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-13.60%</t>
+          <t>-17.52%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.82%</t>
+          <t>68.39%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$92,176,427</t>
+          <t>$17,881,469</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>-13.60%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.11%</t>
+          <t>65.82%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$726,810,103</t>
+          <t>$92,176,427</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.99%</t>
+          <t>-8.25%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.31%</t>
+          <t>71.11%</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1147,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1142,7 +1206,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1174,7 +1238,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1206,7 +1270,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,7 +1334,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1302,7 +1366,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1334,160 +1398,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$192,493</t>
+          <t>$37,515,527</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>5.20%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-11.58%</t>
+          <t>-38.05%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>73.53%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$37,515,527</t>
+          <t>$436,092</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.20%</t>
+          <t>12.47%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-38.05%</t>
+          <t>-11.42%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>73.53%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$436,092</t>
+          <t>$192,493</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.47%</t>
+          <t>1.68%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.42%</t>
+          <t>-11.58%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$502,581,531</t>
+          <t>$97,400,689</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-13.61%</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.77%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$97,400,689</t>
+          <t>$502,581,531</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>-13.61%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>69.77%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/rhode-island_overview.xlsx
+++ b/data/processed/state_overviews/rhode-island_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>547</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,009,094,930</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>547</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,009,094,930</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>43.48%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$21,640,086</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.00%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.89%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>43.48%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>81.48%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$85,404,142</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.56%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-28.77%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>81.48%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>47.46%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$63,188,348</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>15.77%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.34%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>47.46%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.39%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>343</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$807,901,665</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.52%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-13.70%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.39%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>60.29%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$30,960,689</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>14.38%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-5.99%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>60.29%</t>
         </is>
       </c>
     </row>
@@ -705,27 +705,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -737,27 +737,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -769,91 +769,91 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>547</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,009,094,930</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>62.28%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>281</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$590,475,638</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.27%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.36%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>62.28%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>69.92%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>266</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$418,619,292</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.96%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-13.27%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>69.92%</t>
         </is>
       </c>
     </row>
@@ -878,187 +878,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>64.41%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>177</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$20,163,196</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14.24%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>64.41%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68.39%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$726,810,103</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>$150,835,594</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.99%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.31%</t>
+          <t>-17.52%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>65.82%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$150,835,594</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>$17,881,469</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-17.52%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.39%</t>
+          <t>-13.60%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>71.11%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$17,881,469</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.94%</t>
+          <t>$92,176,427</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-13.60%</t>
+          <t>7.68%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>65.82%</t>
+          <t>-8.25%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>70.31%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$92,176,427</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.68%</t>
+          <t>$726,810,103</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.11%</t>
+          <t>-6.99%</t>
         </is>
       </c>
     </row>
@@ -1070,27 +1070,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>44.44%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,228,141</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>24.29%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.70%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>44.44%</t>
         </is>
       </c>
     </row>
@@ -1102,27 +1102,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>547</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,009,094,930</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
@@ -1147,155 +1147,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>58.73%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$28,568,314</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>19.67%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-2.35%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>58.73%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.29%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$74,378,415</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.19%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.89%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.29%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>34.62%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$6,959,923</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>30.08%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>13.73%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>34.62%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>78.57%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$77,536,872</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.19%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.02%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>78.57%</t>
         </is>
       </c>
     </row>
@@ -1307,251 +1307,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$5,765,668</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>5.24%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-35.54%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>65.36%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>153</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$158,026,958</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>7.86%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.79%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>65.36%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$19,732,448</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2.05%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-15.04%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$37,515,527</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.20%</t>
+          <t>$192,493</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-38.05%</t>
+          <t>1.68%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>73.53%</t>
+          <t>-11.58%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>73.53%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$436,092</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.47%</t>
+          <t>$37,515,527</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-11.42%</t>
+          <t>5.20%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-38.05%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$192,493</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>$436,092</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.58%</t>
+          <t>12.47%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-11.42%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>69.77%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$97,400,689</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7.53%</t>
+          <t>$502,581,531</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>-13.61%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$502,581,531</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>$97,400,689</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-13.61%</t>
+          <t>7.53%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.77%</t>
+          <t>2.68%</t>
         </is>
       </c>
     </row>
@@ -1563,27 +1563,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>66.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>547</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$1,009,094,930</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-11.45%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>66.00%</t>
         </is>
       </c>
     </row>
